--- a/biology/Zoologie/Crocodile_du_Nil/Crocodile_du_Nil.xlsx
+++ b/biology/Zoologie/Crocodile_du_Nil/Crocodile_du_Nil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocodylus niloticus
-Le Crocodile du Nil (Crocodylus niloticus Laurenti, 1768) est une espèce de crocodiliens de la famille des Crocodylidae[1].
+Le Crocodile du Nil (Crocodylus niloticus Laurenti, 1768) est une espèce de crocodiliens de la famille des Crocodylidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Crocodile du Nil est l'un des quatre plus grands crocodiliens du monde avec le Crocodile marin, le Gavial du Gange et le Caïman noir. Le mâle adulte mesure entre 3,5 et 5 m de long (4 m en moyenne) et pèse 225 à 750 kg[2]. Cependant, des spécimens dépassant 6,1 m de long et pesant jusqu'à 1 089 kg ont été enregistrés, comme « Gustave » au Burundi[3]. La femelle est plus petite, d'environ 30 %. La force de morsure du Crocodile du Nil est de l'ordre de 22 kilonewtons, soit 2,2 tonnes-force.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Crocodile du Nil est l'un des quatre plus grands crocodiliens du monde avec le Crocodile marin, le Gavial du Gange et le Caïman noir. Le mâle adulte mesure entre 3,5 et 5 m de long (4 m en moyenne) et pèse 225 à 750 kg. Cependant, des spécimens dépassant 6,1 m de long et pesant jusqu'à 1 089 kg ont été enregistrés, comme « Gustave » au Burundi. La femelle est plus petite, d'environ 30 %. La force de morsure du Crocodile du Nil est de l'ordre de 22 kilonewtons, soit 2,2 tonnes-force.
 </t>
         </is>
       </c>
@@ -543,16 +557,18 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éventail de ses proies est très varié et dépend de la taille de l'animal, les plus jeunes se nourrissant d'invertébrés aquatiques et d'insectes, les plus grands de poissons, d'amphibiens et de reptiles. Ils peuvent s'attaquer à des antilopes, des buffles ou de jeunes hippopotames. Sa principale technique de chasse est de rester immobile dans l'eau, ne laissant dépasser que le sommet de sa tête et ses narines, puis de saisir brutalement sa proie avant de l'entraîner sous l'eau et de la noyer.
-Leur réputation de mangeurs d'hommes n'est pas infondée. Ainsi entre 2010 et 2014, ils seraient responsables de 480 attaques dont 123 mortelles en Afrique[4].
-Le crocodile du Nil se propulse dans l’eau grâce à sa longue queue. Ses yeux sont protégés par une membrane protectrice. Il possède au niveau du palais un repli dit « gulaire » qui isole totalement la bouche du pharynx, lui permettant de rester sous l'eau la gueule ouverte sans se noyer[5].
+Leur réputation de mangeurs d'hommes n'est pas infondée. Ainsi entre 2010 et 2014, ils seraient responsables de 480 attaques dont 123 mortelles en Afrique.
+Le crocodile du Nil se propulse dans l’eau grâce à sa longue queue. Ses yeux sont protégés par une membrane protectrice. Il possède au niveau du palais un repli dit « gulaire » qui isole totalement la bouche du pharynx, lui permettant de rester sous l'eau la gueule ouverte sans se noyer.
 Il possède quatre pattes petites, mais puissantes : deux pattes antérieures qui présentent cinq orteils, et deux pattes postérieures qui présentent quatre orteils et qui sont palmées. Lorsqu’il se déplace sur terre, il utilise ses pattes, mais seuls les avant-bras bougent, et l’avant des pattes forme un angle droit. Il peut courir à 17 km/h sur de courtes distances.
-Il a un long museau triangulaire. Ses yeux et ses narines sont situés au sommet du crâne. Ses dents s’emboîtent parfaitement. Lorsqu’il dévore une proie qu’il a chassée et qu'il se casse des dents, elles peuvent repousser une cinquantaine de fois. Certaines dents, notamment la quatrième mandibulaire, particulièrement longue, dépassent sur le côté lorsque la gueule est fermée[6].
+Il a un long museau triangulaire. Ses yeux et ses narines sont situés au sommet du crâne. Ses dents s’emboîtent parfaitement. Lorsqu’il dévore une proie qu’il a chassée et qu'il se casse des dents, elles peuvent repousser une cinquantaine de fois. Certaines dents, notamment la quatrième mandibulaire, particulièrement longue, dépassent sur le côté lorsque la gueule est fermée.
 À l’éclosion des œufs, le bébé crocodile mesure environ 30 cm et a le même corps que sa mère, qu'il soit mâle ou femelle.
-Les crocodiles du Nil ne s'alimentent plus si la température est inférieure à 15,6 °C et ils ne sont plus capables de nager si la température est inférieure à 7,6 °C[7].
-En Afrique du Sud, en raison du climat sec présent en été, l'animal pratique l'estivation et s'enterre dans des tunnels ; son état est alors similaire à celui des animaux qui hibernent[8].
+Les crocodiles du Nil ne s'alimentent plus si la température est inférieure à 15,6 °C et ils ne sont plus capables de nager si la température est inférieure à 7,6 °C.
+En Afrique du Sud, en raison du climat sec présent en été, l'animal pratique l'estivation et s'enterre dans des tunnels ; son état est alors similaire à celui des animaux qui hibernent.
 </t>
         </is>
       </c>
